--- a/wwwroot/uploads/excel_IF_example.xlsx
+++ b/wwwroot/uploads/excel_IF_example.xlsx
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>stt</t>
   </si>
@@ -56,6 +56,9 @@
     <t>CH01</t>
   </si>
   <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
     <t>CH02</t>
   </si>
   <si>
@@ -81,25 +84,17 @@
   </si>
   <si>
     <t>CH10</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -469,165 +464,206 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0">
+        <v>250</v>
+      </c>
+      <c r="E2" s="0" t="str">
+        <f>IF(D2&lt;=300,"đạt","không đạt")</f>
+        <v>đạt</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0">
+        <v>350</v>
+      </c>
+      <c r="E3" s="0" t="str">
+        <f>IF(D3&lt;=300,"đạt","không đạt")</f>
+        <v>không đạt</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0">
+        <v>250</v>
+      </c>
+      <c r="E4" s="0" t="str">
+        <f>IF(D4&lt;=300,"đạt","không đạt")</f>
+        <v>đạt</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0">
+        <v>300</v>
+      </c>
+      <c r="E5" s="0" t="str">
+        <f>IF(D5&lt;=300,"đạt","không đạt")</f>
+        <v>đạt</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0">
+        <v>350</v>
+      </c>
+      <c r="E6" s="0" t="str">
+        <f>IF(D6&lt;=300,"đạt","không đạt")</f>
+        <v>không đạt</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="0">
+        <v>350</v>
+      </c>
+      <c r="E7" s="0" t="str">
+        <f>IF(D7&lt;=300,"đạt","không đạt")</f>
+        <v>không đạt</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0">
+        <v>200</v>
+      </c>
+      <c r="E8" s="0" t="str">
+        <f>IF(D8&lt;=300,"đạt","không đạt")</f>
+        <v>đạt</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="0">
+        <v>200</v>
+      </c>
+      <c r="E9" s="0" t="str">
+        <f>IF(D9&lt;=300,"đạt","không đạt")</f>
+        <v>đạt</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="0">
+        <v>290</v>
+      </c>
+      <c r="E10" s="0" t="str">
+        <f>IF(D10&lt;=300,"đạt","không đạt")</f>
+        <v>đạt</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="0">
         <v>310</v>
+      </c>
+      <c r="E11" s="0" t="str">
+        <f>IF(D11&lt;=300,"đạt","không đạt")</f>
+        <v>không đạt</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>